--- a/data/trans_dic/P32-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,2</t>
+          <t>0,34; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,41</t>
+          <t>3,14; 9,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,38</t>
+          <t>3,61; 9,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,08</t>
+          <t>3,4; 9,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,61</t>
+          <t>0,8; 8,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,19</t>
+          <t>1,89; 10,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,34</t>
+          <t>1,18; 6,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,05</t>
+          <t>0,6; 3,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,72</t>
+          <t>2,85; 7,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,32</t>
+          <t>3,52; 8,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,82</t>
+          <t>3,04; 7,38</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,69</t>
+          <t>0,49; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,43</t>
+          <t>2,85; 10,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,19</t>
+          <t>2,55; 8,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,07</t>
+          <t>1,65; 6,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,46</t>
+          <t>0,8; 8,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,75</t>
+          <t>1,66; 7,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,29</t>
+          <t>1,67; 7,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,21</t>
+          <t>0,57; 3,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,27</t>
+          <t>2,82; 8,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,4</t>
+          <t>2,7; 6,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,84</t>
+          <t>2,1; 5,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,89</t>
+          <t>1,74; 5,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,66</t>
+          <t>3,5; 8,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,36</t>
+          <t>1,71; 5,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,71</t>
+          <t>3,92; 10,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 16,52</t>
+          <t>1,69; 14,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,48</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,54</t>
+          <t>1,66; 5,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,2</t>
+          <t>3,37; 7,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,59</t>
+          <t>2,21; 6,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,34</t>
+          <t>3,4; 9,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,7</t>
+          <t>2,01; 5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,84</t>
+          <t>5,54; 9,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,31</t>
+          <t>3,54; 7,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,38</t>
+          <t>3,81; 9,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>0,0; 4,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,43</t>
+          <t>0,42; 3,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,49</t>
+          <t>1,04; 4,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,06; 2,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,89</t>
+          <t>1,67; 4,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,97</t>
+          <t>4,43; 7,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,76</t>
+          <t>3,05; 5,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,85</t>
+          <t>1,71; 5,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,22</t>
+          <t>0,87; 6,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,26</t>
+          <t>2,97; 7,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,84</t>
+          <t>3,19; 8,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,52</t>
+          <t>4,94; 12,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,79</t>
+          <t>1,42; 9,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,43</t>
+          <t>0,59; 5,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,15</t>
+          <t>1,69; 6,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,95</t>
+          <t>1,42; 5,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,09</t>
+          <t>2,34; 6,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,04</t>
+          <t>2,22; 5,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,17</t>
+          <t>4,31; 9,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,66</t>
+          <t>1,82; 8,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 21,98</t>
+          <t>9,21; 20,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,41</t>
+          <t>4,65; 14,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 23,2</t>
+          <t>1,85; 27,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,68</t>
+          <t>0,37; 3,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,58</t>
+          <t>2,23; 7,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,46</t>
+          <t>0,79; 3,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,56</t>
+          <t>4,0; 8,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,57</t>
+          <t>3,96; 9,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,57</t>
+          <t>1,11; 12,31</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,05</t>
+          <t>5,66; 8,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,39</t>
+          <t>4,37; 6,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,88</t>
+          <t>4,93; 7,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,49</t>
+          <t>0,78; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,33</t>
+          <t>1,35; 3,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,45</t>
+          <t>2,32; 4,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,26</t>
+          <t>1,0; 3,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,96</t>
+          <t>1,74; 2,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,07</t>
+          <t>4,4; 6,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,34</t>
+          <t>3,77; 5,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,66</t>
+          <t>3,5; 5,72</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensa que debería beber menos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17378</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16188</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4886</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5150</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5409</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21445</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24318</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21338</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>979; 11038</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9204; 26864</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10437; 28049</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9609; 25569</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5278</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1199; 13345</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2914; 15769</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1919; 11366</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2506; 12822</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12610; 33308</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15604; 35777</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13528; 32878</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14559</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11227</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4886</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7325</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5990</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19445</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12621</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1087; 10171</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7223; 25468</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6095; 19298</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3523; 14833</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7162</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1135; 12738</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3154; 14511</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2221; 9851</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2153; 12044</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11156; 32516</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11606; 28508</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7270; 20046</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22138</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11899</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13829</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12259</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24046</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15121</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5904; 20284</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13599; 33907</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5682; 19752</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8281; 22143</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5729</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5960</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>955; 8071</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4042</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6649; 21096</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15755; 36943</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8631; 25253</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8556; 22990</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20722</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49191</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33895</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30506</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2404</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6824</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3490</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23126</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>52178</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40719</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33996</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13453; 33957</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36608; 63956</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23243; 47699</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19405; 46223</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8164</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>969; 8151</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3093; 14129</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>253; 11138</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14381; 35146</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39535; 67476</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29088; 56442</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15794; 54178</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15090</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17154</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18864</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5798</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11501</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19246</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19108</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23560</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1874; 13050</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9040; 24191</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10073; 27595</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11463; 28467</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 13053</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1078; 9918</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6385</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2211; 8861</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5060; 20630</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11448; 29687</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11233; 30101</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15647; 33409</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20105</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13617</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8766</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11036</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23988</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24654</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10993</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2533; 12520</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12860; 29263</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7477; 23498</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1753; 25985</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4723</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>984; 9075</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5716; 19545</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11422</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2815; 13347</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16118; 35212</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>16483; 37978</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2396; 26613</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>137642</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>105171</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95917</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37300</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>21142</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64728</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>160348</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>142471</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>117059</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38112; 67172</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>115388; 163330</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>87095; 127649</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>76033; 118659</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6959; 22689</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>14149; 35439</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26548; 52214</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>10005; 33533</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48257; 81390</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>136050; 187917</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>118184; 167296</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>89023; 145730</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P32-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
